--- a/Checklist_Nhom19.xlsx
+++ b/Checklist_Nhom19.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503BF3B-93F1-4EA1-AB45-3715E0F9A62D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,17 +13,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$222:$E$230</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="307">
   <si>
     <t>Thành viên</t>
   </si>
@@ -195,9 +202,6 @@
     <t>Hiển thị / Chỉnh sửa thông tin tên đăng nhập</t>
   </si>
   <si>
-    <t>Hiển thị / Chỉnh sửa role (Nếu là user thường thì chỉ hiện User, còn Admin thì hiển thị dropdownlist)</t>
-  </si>
-  <si>
     <t>Hiển thị / Chỉnh sửa thông tin địa chỉ</t>
   </si>
   <si>
@@ -252,9 +256,6 @@
     <t>Hiển thị / chỉnh sửa thông tin địa chỉ</t>
   </si>
   <si>
-    <t>Hiển thị / chỉnh sửa thông tin role</t>
-  </si>
-  <si>
     <t>Hiển thị / chỉnh sửa thông tin số điện thoại</t>
   </si>
   <si>
@@ -562,12 +563,402 @@
   </si>
   <si>
     <t>View</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin mã hóa đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị ngày tạo hóa đơn</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin hóa đơn được chọn</t>
+  </si>
+  <si>
+    <t>Xóa thông tin hóa đơn được chọn</t>
+  </si>
+  <si>
+    <t>Thêm hóa đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin các hóa đơn hiện có, khi chọn 1 dòng, thông tin các hóa đơn đó sẽ được hiển thị bên trái</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách năm cần xem báo cáo</t>
+  </si>
+  <si>
+    <t>Bấm để hiển thị báo cáo dựa theo 2 tham số year và month</t>
+  </si>
+  <si>
+    <t>Service ID</t>
+  </si>
+  <si>
+    <t>Service Name</t>
+  </si>
+  <si>
+    <t>Service Price</t>
+  </si>
+  <si>
+    <t>Service Table</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin mã dịch vụ</t>
+  </si>
+  <si>
+    <t>Hiển thị / chỉnh sửa thông tin tên dịch vụ</t>
+  </si>
+  <si>
+    <t>Hiển thị / chỉnh sửa thông tin giá dịch vụ</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin các dịch vụ hiện có, khi chọn 1 dòng, thông tin các dịch vụ đó sẽ được hiển thị bên trái</t>
+  </si>
+  <si>
+    <t>Thêm thông tin dịch vụ</t>
+  </si>
+  <si>
+    <t>Xóa thông tin dịch vụ được chọn</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin dịch vụ được chọn</t>
+  </si>
+  <si>
+    <t>Category ID</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>Percent Revenue</t>
+  </si>
+  <si>
+    <t>Category Table</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin mã loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị / chỉnh sửa thông tin tên loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị / chỉnh sửa thông tin phần trăm lợi nhuận theo loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin các loại sản phẩm hiện có, khi chọn 1 dòng, thông tin các loại sản phẩm đó sẽ được hiển thị bên trái</t>
+  </si>
+  <si>
+    <t>Thêm thông tin loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Xóa thông tin loại sản phẩm được chọn</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin loại sản phẩm được chọn</t>
+  </si>
+  <si>
+    <t>Transaction ID (Post Invoice)</t>
+  </si>
+  <si>
+    <t>Vendor ID (Post Invoice)</t>
+  </si>
+  <si>
+    <t>Vendor Name (Post Invoice)</t>
+  </si>
+  <si>
+    <t>Created Date (Post Invoice)</t>
+  </si>
+  <si>
+    <t>Refresh (Post Invoice)</t>
+  </si>
+  <si>
+    <t>Insert (Post Invoice)</t>
+  </si>
+  <si>
+    <t>Update (Post Invoice)</t>
+  </si>
+  <si>
+    <t>Detele (Post Invoice)</t>
+  </si>
+  <si>
+    <t>Post Invoice Table (Sale Invoice)</t>
+  </si>
+  <si>
+    <t>Transaction ID (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin mã sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin đơn vị</t>
+  </si>
+  <si>
+    <t>Hiển thị / Chỉnh sửa thông tin số lượng sản phẩm cần bán</t>
+  </si>
+  <si>
+    <t>Nhấn vào để tính giá và tổng tiền</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin đơn giá bán ra (Đơn giá bán ra = Đơn giá mua vào + (Đơn giá mua vào x Phần trăm lợi nhuận))</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin tổng tiền (= Đơn giá bán ra * số lượng)</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin các chi tiết hóa đơn hiện có, khi chọn 1 dòng, thông tin các chi tiết hóa đơn đó sẽ được hiển thị bên trái</t>
+  </si>
+  <si>
+    <t>Thêm chi tiết hóa đơn</t>
+  </si>
+  <si>
+    <t>Xóa thông tin chi tiết hóa đơn được chọn</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin chi tiết hóa đơn được chọn</t>
+  </si>
+  <si>
+    <t>Product Name (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Product Category (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Hiển thị / Chỉnh sửa thông tin trọng lượng sản phẩm cần bán</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin đơn giá mua hàng</t>
+  </si>
+  <si>
+    <t>Unit (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Quantity (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Weight (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Price (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Total (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Clear (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Insert (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Update (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Detele (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Post Invoice Details Table (Post Invoice Details)</t>
+  </si>
+  <si>
+    <t>Invoice No (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Customer ID (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Customer Name (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Created Date (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Total (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Prepaid (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Remain (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Status (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin tổng giá dịch vụ</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin tổng tiền trả trước</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin tổng tiền còn lại</t>
+  </si>
+  <si>
+    <t>Hiển thị trạng thái của hóa đơn (Hoàn thành khi tất cả chi tiết của hóa đơn đó được giao (Delivered))</t>
+  </si>
+  <si>
+    <t>Clear (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Insert (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Update (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Detele (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Invoice No (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Service ID (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Service Name (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Service Price (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Additional Price (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Price (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Service Invoice Table (Service Invoice)</t>
+  </si>
+  <si>
+    <t>Quantity (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Total (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Prepaid (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Remain (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Delivered Date (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Status (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Clear (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Insert (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Update (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Detele (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Service Invoice Details Table (Service Invoice Details)</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin giá dịch vụ</t>
+  </si>
+  <si>
+    <t>Hiển thị / Chỉnh sửa thông tin chi phí riêng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị đơn giá được tính = Đơn giá dịch vụ + chi phí riêng </t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin tổng tiền (= Đơn giá được tính * số lượng)</t>
+  </si>
+  <si>
+    <t>Hiển thị / Chỉnh sửa thông tin số tiền trả trước (Số tiền trả trước của từng loại dịch vụ phải &gt;= (50% x Thành tiền) của loại dịch vụ đó)</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin số tiền còn lại phải trả</t>
+  </si>
+  <si>
+    <t>Hiển thị ngày giao dịch vụ trong chi tiết hóa đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị trạng thái của hóa đơn (Tình trạng là “Đã giao” hoặc “Chưa giao”)</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Import Price</t>
+  </si>
+  <si>
+    <t>Product List</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách tên khách hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách tên dịch vụ</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách đơn vị</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị / chỉnh sửa danh sách role</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách role (Nếu là user thường thì chỉ hiện User, còn Admin thì hiển thị dropdownlist)</t>
+  </si>
+  <si>
+    <t>Hiển thị / Chỉnh sửa số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị / Chỉnh sửa số lượng giá nhập</t>
+  </si>
+  <si>
+    <t>Hiển thị / Chỉnh sửa trọng lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Xóa thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin các sản phẩm hiện có, khi chọn 1 dòng, thông tin các sản phẩm đó sẽ được hiển thị bên trái</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -772,7 +1163,7 @@
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="104">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -844,17 +1235,52 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -868,6 +1294,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -975,13 +1408,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -991,6 +1417,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1098,13 +1531,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1114,6 +1540,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1171,59 +1604,10 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1237,6 +1621,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1294,6 +1685,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1344,13 +1736,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1360,6 +1745,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1417,6 +1809,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1467,13 +1860,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1483,6 +1869,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1512,6 +1905,107 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1563,7 +2057,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1614,13 +2107,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1630,6 +2116,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1737,13 +2230,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1753,6 +2239,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1810,6 +2303,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1860,13 +2354,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1876,6 +2363,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1905,6 +2399,38 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1919,6 +2445,38 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1930,6 +2488,39 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1948,6 +2539,38 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1962,6 +2585,38 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1984,13 +2639,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -2000,6 +2648,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -2027,107 +2682,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2159,7 +2713,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2197,7 +2757,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2235,7 +2801,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2273,7 +2845,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2311,7 +2889,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2349,7 +2933,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2387,7 +2977,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2425,7 +3021,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2463,7 +3065,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2501,7 +3109,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2539,7 +3153,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2577,7 +3197,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2604,18 +3230,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>129990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2642,18 +3274,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>423</xdr:row>
+      <xdr:row>429</xdr:row>
       <xdr:rowOff>134130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>440</xdr:row>
+      <xdr:row>446</xdr:row>
       <xdr:rowOff>114912</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2680,18 +3318,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>468</xdr:row>
+      <xdr:row>462</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>206943</xdr:colOff>
-      <xdr:row>486</xdr:row>
+      <xdr:row>480</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2718,18 +3362,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>513</xdr:row>
+      <xdr:row>492</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>227124</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>510</xdr:row>
       <xdr:rowOff>18469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2756,18 +3406,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>558</xdr:row>
+      <xdr:row>522</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>576</xdr:row>
+      <xdr:row>540</xdr:row>
       <xdr:rowOff>103768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2794,238 +3450,238 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A22:E28" totalsRowShown="0" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A22:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A22:E28" totalsRowShown="0" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A22:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Loại" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Công dụng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Tình trạng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="6" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Thành phần" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Loại" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Công dụng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tình trạng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A308:E331" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="70" tableBorderDxfId="71" totalsRowBorderDxfId="69" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A308:E331"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table13" displayName="Table13" ref="A308:E331" totalsRowShown="0" headerRowDxfId="71" headerRowBorderDxfId="70" tableBorderDxfId="69" totalsRowBorderDxfId="68" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A308:E331" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataDxfId="68" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Loại" dataDxfId="67" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Công dụng" dataDxfId="66" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Tình trạng" dataDxfId="65" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" name="Mô tả lỗi nếu không hoạt động" dataDxfId="64" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Thành phần" dataDxfId="67" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Loại" dataDxfId="66" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Công dụng" dataDxfId="65" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tình trạng" dataDxfId="64" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Mô tả lỗi nếu không hoạt động" dataDxfId="63" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A222:E230" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="61" tableBorderDxfId="62" totalsRowBorderDxfId="60" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A222:E230"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table14" displayName="Table14" ref="A222:E230" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60" totalsRowBorderDxfId="59" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A222:E230" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataDxfId="59" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Loại" dataDxfId="58" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Công dụng" dataDxfId="57" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Tình trạng" dataDxfId="56" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" name="Mô tả lỗi nếu không hoạt động" dataDxfId="55" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Thành phần" dataDxfId="58" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Loại" dataDxfId="57" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Công dụng" dataDxfId="56" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Tình trạng" dataDxfId="55" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Mô tả lỗi nếu không hoạt động" dataDxfId="54" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A353:E376" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52" totalsRowBorderDxfId="50" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A353:E376"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table1316" displayName="Table1316" ref="A353:E375" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A353:E375" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataDxfId="49" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Loại" dataDxfId="48" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Công dụng" dataDxfId="47" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Tình trạng" dataDxfId="46" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" name="Mô tả lỗi nếu không hoạt động" dataDxfId="45" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Thành phần" dataDxfId="49" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Loại" dataDxfId="48" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Công dụng" dataDxfId="47" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Tình trạng" dataDxfId="46" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Mô tả lỗi nếu không hoạt động" dataDxfId="45" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table131617" displayName="Table131617" ref="A398:E421" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A398:E421"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table131617" displayName="Table131617" ref="A397:E427" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A397:E427" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataDxfId="40" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Loại" dataDxfId="39" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Công dụng" dataDxfId="38" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Tình trạng" dataDxfId="37" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" name="Mô tả lỗi nếu không hoạt động" dataDxfId="36" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Thành phần" dataDxfId="40" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Loại" dataDxfId="39" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Công dụng" dataDxfId="38" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Tình trạng" dataDxfId="37" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Mô tả lỗi nếu không hoạt động" dataDxfId="36" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table13161719" displayName="Table13161719" ref="A443:E466" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="33" tableBorderDxfId="34" totalsRowBorderDxfId="32" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A443:E466"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table13161719" displayName="Table13161719" ref="A449:E460" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A449:E460" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataDxfId="31" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Loại" dataDxfId="30" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Công dụng" dataDxfId="29" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Tình trạng" dataDxfId="28" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" name="Mô tả lỗi nếu không hoạt động" dataDxfId="27" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Thành phần" dataDxfId="2" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Loại" dataDxfId="1" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Công dụng" dataDxfId="0" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Tình trạng" dataDxfId="31" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Mô tả lỗi nếu không hoạt động" dataDxfId="30" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1316171920" displayName="Table1316171920" ref="A488:E511" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A488:E511"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table1316171920" displayName="Table1316171920" ref="A482:E490" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A482:E490" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataDxfId="22" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Loại" dataDxfId="21" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Công dụng" dataDxfId="20" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Tình trạng" dataDxfId="19" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" name="Mô tả lỗi nếu không hoạt động" dataDxfId="18" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Thành phần" dataDxfId="25" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Loại" dataDxfId="24" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Công dụng" dataDxfId="23" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Tình trạng" dataDxfId="22" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Mô tả lỗi nếu không hoạt động" dataDxfId="21" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table131617192021" displayName="Table131617192021" ref="A533:E556" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A533:E556"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table131617192021" displayName="Table131617192021" ref="A512:E520" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A512:E520" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataDxfId="13" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Loại" dataDxfId="12" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Công dụng" dataDxfId="11" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Tình trạng" dataDxfId="10" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" name="Mô tả lỗi nếu không hoạt động" dataDxfId="9" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Thành phần" dataDxfId="16" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Loại" dataDxfId="15" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Công dụng" dataDxfId="14" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Tình trạng" dataDxfId="13" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Mô tả lỗi nếu không hoạt động" dataDxfId="12" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table13161719202122" displayName="Table13161719202122" ref="A578:E581" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A578:E581"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table13161719202122" displayName="Table13161719202122" ref="A542:E545" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A542:E545" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataDxfId="4" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Loại" dataDxfId="3" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Công dụng" dataDxfId="2" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Tình trạng" dataDxfId="1" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" name="Mô tả lỗi nếu không hoạt động" dataDxfId="0" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="Thành phần" dataDxfId="7" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Loại" dataDxfId="6" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Công dụng" dataDxfId="5" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Tình trạng" dataDxfId="4" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Mô tả lỗi nếu không hoạt động" dataDxfId="3" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table24" displayName="Table24" ref="A49:E53" totalsRowShown="0" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A49:E53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table24" displayName="Table24" ref="A49:E53" totalsRowShown="0" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A49:E53" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Loại" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Công dụng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Tình trạng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="6" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Thành phần" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Loại" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Công dụng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Tình trạng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table245" displayName="Table245" ref="A73:E79" totalsRowShown="0" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A73:E79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table245" displayName="Table245" ref="A73:E79" totalsRowShown="0" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A73:E79" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Loại" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Công dụng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Tình trạng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="6" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Thành phần" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Loại" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Công dụng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Tình trạng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2456" displayName="Table2456" ref="A97:E102" totalsRowShown="0" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A97:E102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table2456" displayName="Table2456" ref="A97:E102" totalsRowShown="0" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A97:E102" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Loại" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Công dụng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Tình trạng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="6" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Thành phần" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Loại" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Công dụng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Tình trạng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table24567" displayName="Table24567" ref="A128:E136" totalsRowShown="0" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A128:E136"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table24567" displayName="Table24567" ref="A128:E136" totalsRowShown="0" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A128:E136" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Loại" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Công dụng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Tình trạng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="6" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Thành phần" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Loại" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Công dụng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Tình trạng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table24567910" displayName="Table24567910" ref="A159:E167" totalsRowShown="0" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A159:E167"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table24567910" displayName="Table24567910" ref="A159:E167" totalsRowShown="0" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A159:E167" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Loại" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Công dụng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Tình trạng" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="6" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Thành phần" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Loại" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Công dụng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Tình trạng" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Mô tả lỗi nếu không hoạt động" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A252:E261" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="97" tableBorderDxfId="98" totalsRowBorderDxfId="96" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A252:E261"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table10" displayName="Table10" ref="A252:E261" headerRowDxfId="103" headerRowBorderDxfId="102" tableBorderDxfId="101" totalsRowBorderDxfId="100" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A252:E261" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataDxfId="95" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Loại" dataDxfId="94" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Công dụng" dataDxfId="93" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Tình trạng" dataDxfId="92" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" name="Mô tả lỗi nếu không hoạt động" dataDxfId="91" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Thành phần" totalsRowLabel="Total" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Loại" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Công dụng" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tình trạng" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Mô tả lỗi nếu không hoạt động" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A190:E199" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="88" tableBorderDxfId="89" totalsRowBorderDxfId="87" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A190:E199"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table11" displayName="Table11" ref="A190:E199" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="88" tableBorderDxfId="87" totalsRowBorderDxfId="86" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A190:E199" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataDxfId="86" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Loại" dataDxfId="85" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Công dụng" dataDxfId="84" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Tình trạng" dataDxfId="83" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" name="Mô tả lỗi nếu không hoạt động" dataDxfId="82" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Thành phần" dataDxfId="85" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Loại" dataDxfId="84" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Công dụng" dataDxfId="83" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tình trạng" dataDxfId="82" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Mô tả lỗi nếu không hoạt động" dataDxfId="81" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A283:E286" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="79" tableBorderDxfId="80" totalsRowBorderDxfId="78" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A283:E286"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table12" displayName="Table12" ref="A283:E286" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78" totalsRowBorderDxfId="77" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A283:E286" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thành phần" dataDxfId="77" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" name="Loại" dataDxfId="76" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" name="Công dụng" dataDxfId="75" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" name="Tình trạng" dataDxfId="74" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" name="Mô tả lỗi nếu không hoạt động" dataDxfId="73" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Thành phần" dataDxfId="76" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Loại" dataDxfId="75" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Công dụng" dataDxfId="74" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tình trạng" dataDxfId="73" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Mô tả lỗi nếu không hoạt động" dataDxfId="72" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3293,11 +3949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I604"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="B582" sqref="B582"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:C545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,7 +4215,7 @@
         <v>52</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -3572,7 +4228,7 @@
         <v>12</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
@@ -3585,7 +4241,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -3598,7 +4254,7 @@
         <v>11</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
@@ -3611,7 +4267,7 @@
         <v>11</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -3619,7 +4275,7 @@
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,52 +4300,52 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B100" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -3702,14 +4358,14 @@
         <v>11</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3737,10 +4393,10 @@
         <v>48</v>
       </c>
       <c r="B129" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
@@ -3753,7 +4409,7 @@
         <v>52</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
@@ -3766,7 +4422,7 @@
         <v>11</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
@@ -3779,33 +4435,33 @@
         <v>11</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
     </row>
     <row r="133" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
@@ -3818,20 +4474,20 @@
         <v>11</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B136" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
@@ -3866,111 +4522,111 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B160" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B161" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B162" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D162" s="16"/>
       <c r="E162" s="16"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B163" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D163" s="16"/>
       <c r="E163" s="16"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B164" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D164" s="16"/>
       <c r="E164" s="16"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B165" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D165" s="16"/>
       <c r="E165" s="16"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B166" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D166" s="16"/>
       <c r="E166" s="16"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B167" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -3992,26 +4648,26 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D191" s="14"/>
       <c r="E191" s="14"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D192" s="14"/>
       <c r="E192" s="14"/>
@@ -4024,7 +4680,7 @@
         <v>13</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D193" s="14"/>
       <c r="E193" s="14"/>
@@ -4037,46 +4693,46 @@
         <v>13</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D194" s="14"/>
       <c r="E194" s="14"/>
     </row>
     <row r="195" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D195" s="14"/>
       <c r="E195" s="14"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C196" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="D196" s="14"/>
       <c r="E196" s="14"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D197" s="14"/>
       <c r="E197" s="14"/>
@@ -4089,27 +4745,27 @@
         <v>11</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D198" s="14"/>
       <c r="E198" s="14"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D199" s="19"/>
       <c r="E199" s="19"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4188,78 +4844,78 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B223" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C223" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="B223" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C223" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="D223" s="14"/>
       <c r="E223" s="14"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B224" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D224" s="14"/>
       <c r="E224" s="14"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B225" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D225" s="14"/>
       <c r="E225" s="14"/>
     </row>
     <row r="226" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A226" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B226" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D226" s="14"/>
       <c r="E226" s="14"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B227" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D227" s="14"/>
       <c r="E227" s="14"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B228" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D228" s="14"/>
       <c r="E228" s="14"/>
@@ -4272,27 +4928,27 @@
         <v>11</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D229" s="14"/>
       <c r="E229" s="14"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B230" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D230" s="19"/>
       <c r="E230" s="19"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -4371,91 +5027,91 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D253" s="14"/>
       <c r="E253" s="14"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B254" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D254" s="14"/>
       <c r="E254" s="14"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B255" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D255" s="14"/>
       <c r="E255" s="14"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B256" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D256" s="14"/>
       <c r="E256" s="14"/>
     </row>
     <row r="257" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B257" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D257" s="14"/>
       <c r="E257" s="14"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B258" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D258" s="14"/>
       <c r="E258" s="14"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B259" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D259" s="14"/>
       <c r="E259" s="14"/>
@@ -4468,27 +5124,27 @@
         <v>11</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D260" s="14"/>
       <c r="E260" s="14"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B261" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D261" s="19"/>
       <c r="E261" s="19"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -4567,46 +5223,46 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B284" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D284" s="14"/>
       <c r="E284" s="14"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B285" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D285" s="14"/>
       <c r="E285" s="14"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B286" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D286" s="19"/>
       <c r="E286" s="19"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -4685,260 +5341,306 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C309" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C309" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="D309" s="14"/>
       <c r="E309" s="14"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C310" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C310" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="D310" s="14"/>
       <c r="E310" s="14"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B311" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C311" s="14"/>
+      <c r="C311" s="14" t="s">
+        <v>293</v>
+      </c>
       <c r="D311" s="14"/>
       <c r="E311" s="14"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B312" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C312" s="14"/>
+      <c r="C312" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="D312" s="14"/>
       <c r="E312" s="14"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B313" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C313" s="14"/>
+      <c r="C313" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D313" s="14"/>
       <c r="E313" s="14"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B314" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C314" s="14"/>
+      <c r="C314" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="D314" s="14"/>
       <c r="E314" s="14"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B315" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C315" s="14"/>
+      <c r="C315" s="15" t="s">
+        <v>179</v>
+      </c>
       <c r="D315" s="14"/>
       <c r="E315" s="14"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B316" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C316" s="14"/>
+      <c r="C316" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="D316" s="14"/>
       <c r="E316" s="14"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B317" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C317" s="14"/>
+      <c r="C317" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="D317" s="14"/>
       <c r="E317" s="14"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C318" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C318" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="D318" s="14"/>
       <c r="E318" s="14"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C319" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C319" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="D319" s="14"/>
       <c r="E319" s="14"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B320" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C320" s="14"/>
+      <c r="C320" s="14" t="s">
+        <v>298</v>
+      </c>
       <c r="D320" s="14"/>
       <c r="E320" s="14"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C321" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C321" s="14" t="s">
+        <v>219</v>
+      </c>
       <c r="D321" s="14"/>
       <c r="E321" s="14"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C322" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C322" s="14" t="s">
+        <v>220</v>
+      </c>
       <c r="D322" s="14"/>
       <c r="E322" s="14"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B323" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C323" s="14"/>
+      <c r="C323" s="14" t="s">
+        <v>221</v>
+      </c>
       <c r="D323" s="14"/>
       <c r="E323" s="14"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B324" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C324" s="14"/>
+      <c r="C324" s="14" t="s">
+        <v>222</v>
+      </c>
       <c r="D324" s="14"/>
       <c r="E324" s="14"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A325" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C325" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C325" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="D325" s="14"/>
       <c r="E325" s="14"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C326" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C326" s="14" t="s">
+        <v>224</v>
+      </c>
       <c r="D326" s="14"/>
       <c r="E326" s="14"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B327" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C327" s="14"/>
+      <c r="C327" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D327" s="14"/>
       <c r="E327" s="14"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B328" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C328" s="14"/>
+      <c r="C328" s="15" t="s">
+        <v>226</v>
+      </c>
       <c r="D328" s="14"/>
       <c r="E328" s="14"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B329" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C329" s="14"/>
+      <c r="C329" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="D329" s="14"/>
       <c r="E329" s="14"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B330" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C330" s="14"/>
+      <c r="C330" s="15" t="s">
+        <v>227</v>
+      </c>
       <c r="D330" s="14"/>
       <c r="E330" s="14"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A331" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B331" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C331" s="19"/>
+      <c r="C331" s="15" t="s">
+        <v>225</v>
+      </c>
       <c r="D331" s="19"/>
       <c r="E331" s="19"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -5017,261 +5719,297 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C354" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C354" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="D354" s="14"/>
       <c r="E354" s="14"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="14" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C355" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C355" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="D355" s="14"/>
       <c r="E355" s="14"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="B356" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C356" s="14"/>
+      <c r="C356" s="14" t="s">
+        <v>297</v>
+      </c>
       <c r="D356" s="14"/>
       <c r="E356" s="14"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="14" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="B357" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C357" s="14"/>
+      <c r="C357" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="D357" s="14"/>
       <c r="E357" s="14"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="14" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="B358" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C358" s="14"/>
+      <c r="C358" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D358" s="14"/>
       <c r="E358" s="14"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="B359" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C359" s="14"/>
+      <c r="C359" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="D359" s="14"/>
       <c r="E359" s="14"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="14" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="B360" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C360" s="14"/>
+      <c r="C360" s="15" t="s">
+        <v>179</v>
+      </c>
       <c r="D360" s="14"/>
       <c r="E360" s="14"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="B361" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C361" s="14"/>
+      <c r="C361" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="D361" s="14"/>
       <c r="E361" s="14"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="B362" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C362" s="14"/>
+      <c r="C362" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="D362" s="14"/>
       <c r="E362" s="14"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C363" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C363" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="D363" s="14"/>
       <c r="E363" s="14"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="B364" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C364" s="14"/>
+      <c r="C364" s="14" t="s">
+        <v>218</v>
+      </c>
       <c r="D364" s="14"/>
       <c r="E364" s="14"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B365" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C365" s="14"/>
+      <c r="C365" s="14" t="s">
+        <v>295</v>
+      </c>
       <c r="D365" s="14"/>
       <c r="E365" s="14"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C366" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="C366" s="14" t="s">
+        <v>296</v>
+      </c>
       <c r="D366" s="14"/>
       <c r="E366" s="14"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="B367" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C367" s="14"/>
+      <c r="C367" s="14" t="s">
+        <v>221</v>
+      </c>
       <c r="D367" s="14"/>
       <c r="E367" s="14"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="14" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="B368" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C368" s="14"/>
+      <c r="C368" s="14" t="s">
+        <v>231</v>
+      </c>
       <c r="D368" s="14"/>
       <c r="E368" s="14"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="14" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C369" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="C369" s="14" t="s">
+        <v>222</v>
+      </c>
       <c r="D369" s="14"/>
       <c r="E369" s="14"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C370" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C370" s="15" t="s">
+        <v>232</v>
+      </c>
       <c r="D370" s="14"/>
       <c r="E370" s="14"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C371" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C371" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D371" s="14"/>
       <c r="E371" s="14"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="B372" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C372" s="14"/>
+      <c r="C372" s="15" t="s">
+        <v>226</v>
+      </c>
       <c r="D372" s="14"/>
       <c r="E372" s="14"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="14" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="B373" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C373" s="14"/>
+      <c r="C373" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="D373" s="14"/>
       <c r="E373" s="14"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="14" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="B374" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C374" s="14"/>
+      <c r="C374" s="15" t="s">
+        <v>227</v>
+      </c>
       <c r="D374" s="14"/>
       <c r="E374" s="14"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="14" t="s">
-        <v>159</v>
+    <row r="375" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A375" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C375" s="14"/>
-      <c r="D375" s="14"/>
-      <c r="E375" s="14"/>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C375" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D375" s="19"/>
+      <c r="E375" s="19"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B376" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C376" s="19"/>
-      <c r="D376" s="19"/>
-      <c r="E376" s="19"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="A378" s="3"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
@@ -5328,300 +6066,416 @@
       <c r="A396" s="3"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="3"/>
+      <c r="A397" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D397" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E397" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B398" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C398" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D398" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E398" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="A398" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B398" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C398" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D398" s="14"/>
+      <c r="E398" s="14"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="14" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C399" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C399" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="D399" s="14"/>
       <c r="E399" s="14"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="14" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C400" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="C400" s="14" t="s">
+        <v>293</v>
+      </c>
       <c r="D400" s="14"/>
       <c r="E400" s="14"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="14" t="s">
-        <v>149</v>
+        <v>246</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C401" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="C401" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="D401" s="14"/>
       <c r="E401" s="14"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="14" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C402" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C402" s="15" t="s">
+        <v>251</v>
+      </c>
       <c r="D402" s="14"/>
       <c r="E402" s="14"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="14" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C403" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C403" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="D403" s="14"/>
       <c r="E403" s="14"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="14" t="s">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C404" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C404" s="15" t="s">
+        <v>253</v>
+      </c>
       <c r="D404" s="14"/>
       <c r="E404" s="14"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A405" s="14" t="s">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C405" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C405" s="15" t="s">
+        <v>254</v>
+      </c>
       <c r="D405" s="14"/>
       <c r="E405" s="14"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="14" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="B406" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C406" s="14"/>
+      <c r="C406" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D406" s="14"/>
       <c r="E406" s="14"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="14" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C407" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C407" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="D407" s="14"/>
       <c r="E407" s="14"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C408" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C408" s="15" t="s">
+        <v>179</v>
+      </c>
       <c r="D408" s="14"/>
       <c r="E408" s="14"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="14" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C409" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C409" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="D409" s="14"/>
       <c r="E409" s="14"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C410" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="C410" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="D410" s="14"/>
       <c r="E410" s="14"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C411" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C411" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="D411" s="14"/>
       <c r="E411" s="14"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C412" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C412" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="D412" s="14"/>
       <c r="E412" s="14"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C413" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="C413" s="14" t="s">
+        <v>294</v>
+      </c>
       <c r="D413" s="14"/>
       <c r="E413" s="14"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C414" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C414" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="D414" s="14"/>
       <c r="E414" s="14"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="14" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="B415" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C415" s="14"/>
+      <c r="C415" s="14" t="s">
+        <v>278</v>
+      </c>
       <c r="D415" s="14"/>
       <c r="E415" s="14"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="14" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C416" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C416" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="D416" s="14"/>
       <c r="E416" s="14"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="14" t="s">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C417" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="C417" s="14" t="s">
+        <v>221</v>
+      </c>
       <c r="D417" s="14"/>
       <c r="E417" s="14"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="14" t="s">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C418" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C418" s="14" t="s">
+        <v>280</v>
+      </c>
       <c r="D418" s="14"/>
       <c r="E418" s="14"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="s">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C419" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="C419" s="15" t="s">
+        <v>281</v>
+      </c>
       <c r="D419" s="14"/>
       <c r="E419" s="14"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="14" t="s">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C420" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C420" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D420" s="14"/>
       <c r="E420" s="14"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="19" t="s">
-        <v>169</v>
+      <c r="A421" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="B421" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C421" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D421" s="14"/>
+      <c r="E421" s="14"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B422" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C422" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D422" s="14"/>
+      <c r="E422" s="14"/>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D423" s="14"/>
+      <c r="E423" s="14"/>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B424" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C424" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D424" s="14"/>
+      <c r="E424" s="14"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B425" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D425" s="14"/>
+      <c r="E425" s="14"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B426" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D426" s="14"/>
+      <c r="E426" s="14"/>
+    </row>
+    <row r="427" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A427" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B427" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C421" s="19"/>
-      <c r="D421" s="19"/>
-      <c r="E421" s="19"/>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="3"/>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="3"/>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="3"/>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="3"/>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="3"/>
+      <c r="C427" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D427" s="19"/>
+      <c r="E427" s="19"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="3"/>
+      <c r="A429" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
@@ -5632,686 +6486,601 @@
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="18" t="s">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="3"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="3"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B443" s="18" t="s">
+      <c r="B449" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C443" s="18" t="s">
+      <c r="C449" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D443" s="18" t="s">
+      <c r="D449" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E443" s="18" t="s">
+      <c r="E449" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B444" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C444" s="14"/>
-      <c r="D444" s="14"/>
-      <c r="E444" s="14"/>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B445" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C445" s="14"/>
-      <c r="D445" s="14"/>
-      <c r="E445" s="14"/>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B446" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C446" s="14"/>
-      <c r="D446" s="14"/>
-      <c r="E446" s="14"/>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B447" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C447" s="14"/>
-      <c r="D447" s="14"/>
-      <c r="E447" s="14"/>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B448" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C448" s="14"/>
-      <c r="D448" s="14"/>
-      <c r="E448" s="14"/>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B449" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C449" s="14"/>
-      <c r="D449" s="14"/>
-      <c r="E449" s="14"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="14" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C450" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C450" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="D450" s="14"/>
       <c r="E450" s="14"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="14" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C451" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="C451" s="14" t="s">
+        <v>218</v>
+      </c>
       <c r="D451" s="14"/>
       <c r="E451" s="14"/>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C452" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="C452" s="14" t="s">
+        <v>292</v>
+      </c>
       <c r="D452" s="14"/>
       <c r="E452" s="14"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>155</v>
+        <v>287</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C453" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="C453" s="14" t="s">
+        <v>295</v>
+      </c>
       <c r="D453" s="14"/>
       <c r="E453" s="14"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="B454" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C454" s="14"/>
+      <c r="C454" s="14" t="s">
+        <v>301</v>
+      </c>
       <c r="D454" s="14"/>
       <c r="E454" s="14"/>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="14" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="B455" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C455" s="14"/>
+      <c r="C455" s="14" t="s">
+        <v>296</v>
+      </c>
       <c r="D455" s="14"/>
       <c r="E455" s="14"/>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="14" t="s">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="B456" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C456" s="14"/>
+      <c r="C456" s="14" t="s">
+        <v>303</v>
+      </c>
       <c r="D456" s="14"/>
       <c r="E456" s="14"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="14" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="B457" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C457" s="14"/>
+      <c r="C457" s="14" t="s">
+        <v>302</v>
+      </c>
       <c r="D457" s="14"/>
       <c r="E457" s="14"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="14" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C458" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C458" s="14" t="s">
+        <v>304</v>
+      </c>
       <c r="D458" s="14"/>
       <c r="E458" s="14"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="B459" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C459" s="14"/>
+      <c r="C459" s="14" t="s">
+        <v>305</v>
+      </c>
       <c r="D459" s="14"/>
       <c r="E459" s="14"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C460" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="C460" s="15" t="s">
+        <v>306</v>
+      </c>
       <c r="D460" s="14"/>
       <c r="E460" s="14"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B461" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C461" s="14"/>
-      <c r="D461" s="14"/>
-      <c r="E461" s="14"/>
-    </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B462" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C462" s="14"/>
-      <c r="D462" s="14"/>
-      <c r="E462" s="14"/>
+      <c r="A462" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B463" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C463" s="14"/>
-      <c r="D463" s="14"/>
-      <c r="E463" s="14"/>
+      <c r="A463" s="3"/>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B464" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C464" s="14"/>
-      <c r="D464" s="14"/>
-      <c r="E464" s="14"/>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B465" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C465" s="14"/>
-      <c r="D465" s="14"/>
-      <c r="E465" s="14"/>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B466" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C466" s="19"/>
-      <c r="D466" s="19"/>
-      <c r="E466" s="19"/>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="3"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="3"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="3"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="3"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="3"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="3"/>
+      <c r="A482" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B482" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C482" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D482" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E482" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="3"/>
+      <c r="A483" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B483" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C483" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D483" s="14"/>
+      <c r="E483" s="14"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="3"/>
+      <c r="A484" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B484" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C484" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D484" s="14"/>
+      <c r="E484" s="14"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="3"/>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="3"/>
+      <c r="A485" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B485" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C485" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D485" s="14"/>
+      <c r="E485" s="14"/>
+    </row>
+    <row r="486" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A486" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B486" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C486" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D486" s="14"/>
+      <c r="E486" s="14"/>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="3"/>
+      <c r="A487" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B487" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C487" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D487" s="14"/>
+      <c r="E487" s="14"/>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B488" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C488" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D488" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E488" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="A488" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B488" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C488" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D488" s="14"/>
+      <c r="E488" s="14"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="B489" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C489" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C489" s="15" t="s">
+        <v>206</v>
+      </c>
       <c r="D489" s="14"/>
       <c r="E489" s="14"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B490" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C490" s="14"/>
+      <c r="A490" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B490" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C490" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D490" s="14"/>
       <c r="E490" s="14"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B491" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C491" s="14"/>
-      <c r="D491" s="14"/>
-      <c r="E491" s="14"/>
-    </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B492" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C492" s="14"/>
-      <c r="D492" s="14"/>
-      <c r="E492" s="14"/>
+      <c r="A492" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B493" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C493" s="14"/>
-      <c r="D493" s="14"/>
-      <c r="E493" s="14"/>
+      <c r="A493" s="3"/>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B494" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C494" s="14"/>
-      <c r="D494" s="14"/>
-      <c r="E494" s="14"/>
+      <c r="A494" s="3"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B495" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C495" s="14"/>
-      <c r="D495" s="14"/>
-      <c r="E495" s="14"/>
+      <c r="A495" s="3"/>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B496" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C496" s="14"/>
-      <c r="D496" s="14"/>
-      <c r="E496" s="14"/>
+      <c r="A496" s="3"/>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B497" s="14" t="s">
+      <c r="A497" s="3"/>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="3"/>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="3"/>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="3"/>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="3"/>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="3"/>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="3"/>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="3"/>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="3"/>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="3"/>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="3"/>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="3"/>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="3"/>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="3"/>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="3"/>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B512" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C512" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D512" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E512" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B513" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C513" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D513" s="14"/>
+      <c r="E513" s="14"/>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B514" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C514" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D514" s="14"/>
+      <c r="E514" s="14"/>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B515" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C515" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D515" s="14"/>
+      <c r="E515" s="14"/>
+    </row>
+    <row r="516" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A516" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B516" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C497" s="14"/>
-      <c r="D497" s="14"/>
-      <c r="E497" s="14"/>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B498" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C498" s="14"/>
-      <c r="D498" s="14"/>
-      <c r="E498" s="14"/>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B499" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C499" s="14"/>
-      <c r="D499" s="14"/>
-      <c r="E499" s="14"/>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B500" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C500" s="14"/>
-      <c r="D500" s="14"/>
-      <c r="E500" s="14"/>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B501" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C501" s="14"/>
-      <c r="D501" s="14"/>
-      <c r="E501" s="14"/>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B502" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C502" s="14"/>
-      <c r="D502" s="14"/>
-      <c r="E502" s="14"/>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B503" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C503" s="14"/>
-      <c r="D503" s="14"/>
-      <c r="E503" s="14"/>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B504" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C504" s="14"/>
-      <c r="D504" s="14"/>
-      <c r="E504" s="14"/>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B505" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C505" s="14"/>
-      <c r="D505" s="14"/>
-      <c r="E505" s="14"/>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B506" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C506" s="14"/>
-      <c r="D506" s="14"/>
-      <c r="E506" s="14"/>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B507" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C507" s="14"/>
-      <c r="D507" s="14"/>
-      <c r="E507" s="14"/>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B508" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C508" s="14"/>
-      <c r="D508" s="14"/>
-      <c r="E508" s="14"/>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B509" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C509" s="14"/>
-      <c r="D509" s="14"/>
-      <c r="E509" s="14"/>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B510" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C510" s="14"/>
-      <c r="D510" s="14"/>
-      <c r="E510" s="14"/>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B511" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C511" s="19"/>
-      <c r="D511" s="19"/>
-      <c r="E511" s="19"/>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="3"/>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="3"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="3"/>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="3"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="3"/>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="3"/>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="3"/>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="3"/>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="3"/>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C516" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D516" s="14"/>
+      <c r="E516" s="14"/>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B517" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C517" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D517" s="14"/>
+      <c r="E517" s="14"/>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B518" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C518" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D518" s="14"/>
+      <c r="E518" s="14"/>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B519" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C519" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D519" s="14"/>
+      <c r="E519" s="14"/>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B520" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C520" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D520" s="14"/>
+      <c r="E520" s="14"/>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -6327,426 +7096,127 @@
       <c r="A532" s="3"/>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" s="18" t="s">
+      <c r="A533" s="3"/>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="3"/>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="3"/>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="3"/>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="3"/>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="3"/>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="3"/>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="3"/>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="3"/>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B533" s="18" t="s">
+      <c r="B542" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C533" s="18" t="s">
+      <c r="C542" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D533" s="18" t="s">
+      <c r="D542" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E533" s="18" t="s">
+      <c r="E542" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B534" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C534" s="14"/>
-      <c r="D534" s="14"/>
-      <c r="E534" s="14"/>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A535" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B535" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C535" s="14"/>
-      <c r="D535" s="14"/>
-      <c r="E535" s="14"/>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A536" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B536" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C536" s="14"/>
-      <c r="D536" s="14"/>
-      <c r="E536" s="14"/>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A537" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B537" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C537" s="14"/>
-      <c r="D537" s="14"/>
-      <c r="E537" s="14"/>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B538" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C538" s="14"/>
-      <c r="D538" s="14"/>
-      <c r="E538" s="14"/>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B539" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C539" s="14"/>
-      <c r="D539" s="14"/>
-      <c r="E539" s="14"/>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B540" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C540" s="14"/>
-      <c r="D540" s="14"/>
-      <c r="E540" s="14"/>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A541" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B541" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C541" s="14"/>
-      <c r="D541" s="14"/>
-      <c r="E541" s="14"/>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B542" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C542" s="14"/>
-      <c r="D542" s="14"/>
-      <c r="E542" s="14"/>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="14" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B543" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C543" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="C543" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="D543" s="14"/>
       <c r="E543" s="14"/>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="14" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B544" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C544" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="C544" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="D544" s="14"/>
       <c r="E544" s="14"/>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="14" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B545" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C545" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C545" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="D545" s="14"/>
       <c r="E545" s="14"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A546" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B546" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C546" s="14"/>
-      <c r="D546" s="14"/>
-      <c r="E546" s="14"/>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B547" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C547" s="14"/>
-      <c r="D547" s="14"/>
-      <c r="E547" s="14"/>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A548" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B548" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C548" s="14"/>
-      <c r="D548" s="14"/>
-      <c r="E548" s="14"/>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B549" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C549" s="14"/>
-      <c r="D549" s="14"/>
-      <c r="E549" s="14"/>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A550" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B550" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C550" s="14"/>
-      <c r="D550" s="14"/>
-      <c r="E550" s="14"/>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A551" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B551" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C551" s="14"/>
-      <c r="D551" s="14"/>
-      <c r="E551" s="14"/>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A552" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B552" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C552" s="14"/>
-      <c r="D552" s="14"/>
-      <c r="E552" s="14"/>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A553" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B553" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C553" s="14"/>
-      <c r="D553" s="14"/>
-      <c r="E553" s="14"/>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A554" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B554" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C554" s="14"/>
-      <c r="D554" s="14"/>
-      <c r="E554" s="14"/>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A555" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B555" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C555" s="14"/>
-      <c r="D555" s="14"/>
-      <c r="E555" s="14"/>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A556" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B556" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C556" s="19"/>
-      <c r="D556" s="19"/>
-      <c r="E556" s="19"/>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A558" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A559" s="3"/>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A560" s="3"/>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="3"/>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="3"/>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="3"/>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="3"/>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="3"/>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="3"/>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="3"/>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="3"/>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="3"/>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="3"/>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="3"/>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="3"/>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="3"/>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="3"/>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="3"/>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="3"/>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A577" s="3"/>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A578" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B578" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C578" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D578" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E578" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A579" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B579" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C579" s="14"/>
-      <c r="D579" s="14"/>
-      <c r="E579" s="14"/>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A580" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B580" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C580" s="14"/>
-      <c r="D580" s="14"/>
-      <c r="E580" s="14"/>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B581" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C581" s="14"/>
-      <c r="D581" s="14"/>
-      <c r="E581" s="14"/>
-    </row>
-    <row r="585" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A585" s="6" t="s">
+    <row r="549" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A549" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="39" x14ac:dyDescent="0.4">
-      <c r="A586" s="7" t="s">
+    <row r="550" spans="1:5" ht="39" x14ac:dyDescent="0.4">
+      <c r="A550" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B586" s="8" t="e">
+      <c r="B550" s="8" t="e">
         <f>COUNTIF(D:D,"Hoạt động")/(COUNTIF(D:D,"Không hoạt động")+COUNTIF(D:D,"Hoạt động"))*10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A587" s="1" t="s">
+    <row r="551" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A551" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B587" s="9"/>
-    </row>
-    <row r="601" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A601" s="10" t="s">
+      <c r="B551" s="9"/>
+    </row>
+    <row r="555" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A555" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A603" s="11" t="s">
+    <row r="557" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A557" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A604" s="12" t="s">
+    <row r="558" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A558" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B604" s="8"/>
+      <c r="B558" s="8"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D28 D50:D53 D74:D80 D98:D102 D129:D136 D160:D167 D191:D198 D223:D229 D253:D260 D284:D286 D309:D331 D354:D376 D399:D421 D444:D466 D489:D511 D534:D556 D579:D581">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D28 D50:D53 D74:D80 D98:D102 D129:D136 D160:D167 D191:D198 D223:D229 D253:D260 D284:D286 D309:D331 D450:D460 D483:D490 D543:D545 D513:D520 D354:D375 D398:D427" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Hoạt động, Không hoạt động"</formula1>
     </dataValidation>
   </dataValidations>
